--- a/excel/assignments/Assignment14_Workbook.xlsx
+++ b/excel/assignments/Assignment14_Workbook.xlsx
@@ -12,16 +12,16 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19185" windowHeight="9225"/>
   </bookViews>
   <sheets>
-    <sheet name="Agenda Planner" sheetId="1" r:id="rId1"/>
+    <sheet name="Agenda (Plan)" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Agenda Planner'!$A$6:$E$6</definedName>
-    <definedName name="Z_17634348_C618_47A5_B543_2E0EB7B0C327_.wvu.FilterData" localSheetId="0" hidden="1">'Agenda Planner'!$A$6:$E$6</definedName>
-    <definedName name="Z_24742702_6688_4D30_A562_96F9B8EC0120_.wvu.FilterData" localSheetId="0" hidden="1">'Agenda Planner'!$A$6:$E$6</definedName>
-    <definedName name="Z_4015ACA9_7A6D_4543_B559_0AC2079F972C_.wvu.FilterData" localSheetId="0" hidden="1">'Agenda Planner'!$A$6:$E$6</definedName>
-    <definedName name="Z_58CDBA34_D04E_4336_BFDD_37D458506DEA_.wvu.FilterData" localSheetId="0" hidden="1">'Agenda Planner'!$A$6:$E$6</definedName>
-    <definedName name="Z_858C7186_A89D_4962_B9BF_142CA9E657C0_.wvu.FilterData" localSheetId="0" hidden="1">'Agenda Planner'!$A$6:$E$6</definedName>
-    <definedName name="Z_D3B490AE_7194_4AC2_9F1F_62F4484D03B7_.wvu.FilterData" localSheetId="0" hidden="1">'Agenda Planner'!$A$6:$E$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Agenda (Plan)'!$A$6:$E$6</definedName>
+    <definedName name="Z_17634348_C618_47A5_B543_2E0EB7B0C327_.wvu.FilterData" localSheetId="0" hidden="1">'Agenda (Plan)'!$A$6:$E$6</definedName>
+    <definedName name="Z_24742702_6688_4D30_A562_96F9B8EC0120_.wvu.FilterData" localSheetId="0" hidden="1">'Agenda (Plan)'!$A$6:$E$6</definedName>
+    <definedName name="Z_4015ACA9_7A6D_4543_B559_0AC2079F972C_.wvu.FilterData" localSheetId="0" hidden="1">'Agenda (Plan)'!$A$6:$E$6</definedName>
+    <definedName name="Z_58CDBA34_D04E_4336_BFDD_37D458506DEA_.wvu.FilterData" localSheetId="0" hidden="1">'Agenda (Plan)'!$A$6:$E$6</definedName>
+    <definedName name="Z_858C7186_A89D_4962_B9BF_142CA9E657C0_.wvu.FilterData" localSheetId="0" hidden="1">'Agenda (Plan)'!$A$6:$E$6</definedName>
+    <definedName name="Z_D3B490AE_7194_4AC2_9F1F_62F4484D03B7_.wvu.FilterData" localSheetId="0" hidden="1">'Agenda (Plan)'!$A$6:$E$6</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -33,66 +33,18 @@
     <t>Event:</t>
   </si>
   <si>
-    <t>Location:</t>
-  </si>
-  <si>
-    <t>Date:</t>
-  </si>
-  <si>
     <t>Start</t>
   </si>
   <si>
-    <t>End</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Team Building Retreat</t>
-  </si>
-  <si>
-    <t>Dinner</t>
-  </si>
-  <si>
-    <t>Breakfast, welcome</t>
-  </si>
-  <si>
     <t>Exec team</t>
   </si>
   <si>
-    <t>Introduction</t>
-  </si>
-  <si>
-    <t>Work relationships exercise</t>
-  </si>
-  <si>
     <t>Garth</t>
   </si>
   <si>
     <t>Garth, Dean, Liz</t>
   </si>
   <si>
-    <t>Break</t>
-  </si>
-  <si>
-    <t>Facilitator</t>
-  </si>
-  <si>
-    <t>Team building exercise</t>
-  </si>
-  <si>
-    <t>Garth, exec team</t>
-  </si>
-  <si>
-    <t>Strengths exercise</t>
-  </si>
-  <si>
     <t>Dean</t>
   </si>
   <si>
@@ -102,10 +54,70 @@
     <t>Waverly Point Nature Preserve</t>
   </si>
   <si>
-    <t>Cady Falls hike (strategy game?)</t>
-  </si>
-  <si>
-    <t>Redwoods hike</t>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Ort:</t>
+  </si>
+  <si>
+    <t>Datum:</t>
+  </si>
+  <si>
+    <t>Team Building Maßnahme</t>
+  </si>
+  <si>
+    <t>Ende</t>
+  </si>
+  <si>
+    <t>Zeit</t>
+  </si>
+  <si>
+    <t>Artikel</t>
+  </si>
+  <si>
+    <t>Verantwortlicher</t>
+  </si>
+  <si>
+    <t>Gesamt</t>
+  </si>
+  <si>
+    <t>Frühstück, Begrüßung</t>
+  </si>
+  <si>
+    <t>Einführung</t>
+  </si>
+  <si>
+    <t>Übung: Arbeitsbeziehungen</t>
+  </si>
+  <si>
+    <t>Pause</t>
+  </si>
+  <si>
+    <t>Mittagessen</t>
+  </si>
+  <si>
+    <t>Strategie Briefing</t>
+  </si>
+  <si>
+    <t>Liz nach Info fragen</t>
+  </si>
+  <si>
+    <t>Übung: Stärken</t>
+  </si>
+  <si>
+    <t>Wanderung: Cady Falls (Strategie Spiel?)</t>
+  </si>
+  <si>
+    <t>Wanderung: Redwoods</t>
+  </si>
+  <si>
+    <t>Übung: Team Building</t>
+  </si>
+  <si>
+    <t>Abendessen</t>
+  </si>
+  <si>
+    <t>Garth, Orgateam</t>
   </si>
   <si>
     <r>
@@ -137,28 +149,15 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>PLANNER</t>
+      <t>PLAN</t>
     </r>
-  </si>
-  <si>
-    <t>See Liz for info</t>
-  </si>
-  <si>
-    <t>Lunch (with strategy game team)</t>
-  </si>
-  <si>
-    <t>Strategy debrief</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
+  <numFmts count="2">
     <numFmt numFmtId="165" formatCode="h:mm;@"/>
     <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -603,7 +602,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -640,19 +639,13 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -666,6 +659,9 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1445,7 +1441,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1468,301 +1464,301 @@
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="39"/>
+      <c r="D2" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="41"/>
+        <v>9</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="42">
+        <v>10</v>
+      </c>
+      <c r="D4" s="36">
         <v>41496</v>
       </c>
-      <c r="E4" s="43"/>
+      <c r="E4" s="37"/>
     </row>
     <row r="5" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="17"/>
       <c r="E5" s="21" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
+      <c r="A7" s="38">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="22">
         <f>IF(ISBLANK(C7),"",A7+C7)</f>
         <v>0.375</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="22">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D7" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>11</v>
+      <c r="D7" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27">
+      <c r="A8" s="39">
         <f>IF(ISBLANK(B7),"",B7)</f>
         <v>0.375</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="25">
         <f>IF(ISBLANK(C8),"",A8+C8)</f>
         <v>0.39583333333333331</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="25">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="D8" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>14</v>
+      <c r="D8" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27">
+      <c r="A9" s="39">
         <f t="shared" ref="A9:A18" si="0">IF(ISBLANK(B8),"",B8)</f>
         <v>0.39583333333333331</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="25">
         <f t="shared" ref="B9:B18" si="1">IF(ISBLANK(C9),"",A9+C9)</f>
         <v>0.4375</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="25">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D9" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>15</v>
+      <c r="D9" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27">
+      <c r="A10" s="39">
         <f t="shared" si="0"/>
         <v>0.4375</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="25">
         <f t="shared" si="1"/>
         <v>0.44791666666666669</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="25">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D10" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="31"/>
+      <c r="D10" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="27"/>
     </row>
     <row r="11" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27">
+      <c r="A11" s="39">
         <f t="shared" si="0"/>
         <v>0.44791666666666669</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="25">
         <f t="shared" si="1"/>
         <v>0.53125</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="25">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D11" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>30</v>
+      <c r="D11" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27">
+      <c r="A12" s="39">
         <f t="shared" si="0"/>
         <v>0.53125</v>
       </c>
-      <c r="B12" s="28">
+      <c r="B12" s="25">
         <f t="shared" si="1"/>
         <v>0.57291666666666663</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="25">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D12" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="31"/>
+      <c r="D12" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="27"/>
     </row>
     <row r="13" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27">
+      <c r="A13" s="39">
         <f t="shared" si="0"/>
         <v>0.57291666666666663</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="25">
         <f t="shared" si="1"/>
         <v>0.58333333333333326</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="25">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D13" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="31" t="s">
+      <c r="D13" s="26" t="s">
         <v>22</v>
       </c>
+      <c r="E13" s="27" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27">
+      <c r="A14" s="39">
         <f t="shared" si="0"/>
         <v>0.58333333333333326</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="25">
         <f t="shared" si="1"/>
         <v>0.62499999999999989</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="25">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D14" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>27</v>
+      <c r="D14" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27">
+      <c r="A15" s="39">
         <f t="shared" si="0"/>
         <v>0.62499999999999989</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15" s="25">
         <f t="shared" si="1"/>
         <v>0.66666666666666652</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="25">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D15" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="31"/>
+      <c r="D15" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="27"/>
     </row>
     <row r="16" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27">
+      <c r="A16" s="39">
         <f t="shared" si="0"/>
         <v>0.66666666666666652</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16" s="25">
         <f t="shared" si="1"/>
         <v>0.67708333333333315</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="25">
         <v>1.0416666666666666E-2</v>
       </c>
-      <c r="D16" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="31"/>
+      <c r="D16" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="27"/>
     </row>
     <row r="17" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27">
+      <c r="A17" s="39">
         <f t="shared" si="0"/>
         <v>0.67708333333333315</v>
       </c>
-      <c r="B17" s="28">
+      <c r="B17" s="25">
         <f t="shared" si="1"/>
         <v>0.70833333333333315</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="25">
         <v>3.125E-2</v>
       </c>
-      <c r="D17" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>21</v>
+      <c r="D17" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27">
+      <c r="A18" s="39">
         <f t="shared" si="0"/>
         <v>0.70833333333333315</v>
       </c>
-      <c r="B18" s="28">
+      <c r="B18" s="25">
         <f t="shared" si="1"/>
         <v>0.74999999999999978</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="25">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D18" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>19</v>
+      <c r="D18" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="33">
+      <c r="A19" s="40">
         <f t="shared" ref="A19" si="2">IF(ISBLANK(B18),"",B18)</f>
         <v>0.74999999999999978</v>
       </c>
-      <c r="B19" s="34">
+      <c r="B19" s="29">
         <f t="shared" ref="B19" si="3">IF(ISBLANK(C19),"",A19+C19)</f>
         <v>0.83333333333333315</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="29">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D19" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="37"/>
+      <c r="D19" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="31"/>
     </row>
     <row r="20" spans="1:5" s="8" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="13">
-        <f>SUBTOTAL(109,'Agenda Planner'!$C$7:$C$19)</f>
+        <f>SUBTOTAL(109,'Agenda (Plan)'!$C$7:$C$19)</f>
         <v>0.5</v>
       </c>
       <c r="D20" s="14"/>
